--- a/branches/master/StructureDefinition-TreatmentLine.xlsx
+++ b/branches/master/StructureDefinition-TreatmentLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:02:38+00:00</t>
+    <t>2023-03-05T16:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-TreatmentLine.xlsx
+++ b/branches/master/StructureDefinition-TreatmentLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:12:02+00:00</t>
+    <t>2023-03-06T10:41:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-TreatmentLine.xlsx
+++ b/branches/master/StructureDefinition-TreatmentLine.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:41:52+00:00</t>
+    <t>2023-03-07T20:58:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
